--- a/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/LABOUR_COMMISSION_09_06_2025.xlsx
+++ b/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/LABOUR_COMMISSION_09_06_2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\region.vtb.ru\dfs\DS_Zapros_FOIV_PR866\ЕДО ИД\02 СТАТИСТИКА\Статистика извлечения июнь 2025\Исходники от Наиля\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python projects\count_statistics_edo_id\data\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="dsv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="183">
   <si>
     <t>regnumber</t>
   </si>
@@ -576,12 +576,18 @@
   <si>
     <t>111111111</t>
   </si>
+  <si>
+    <t>doc_class</t>
+  </si>
+  <si>
+    <t>labour_commission</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -846,105 +852,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1"/>
-    <col min="7" max="7" width="32.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="32.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
@@ -952,68 +964,77 @@
       <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>7707111111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>770000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
@@ -1021,28 +1042,31 @@
       <c r="I6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>45</v>
@@ -1050,372 +1074,414 @@
       <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -1423,28 +1489,31 @@
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
@@ -1452,28 +1521,31 @@
       <c r="I22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>97</v>
@@ -1481,28 +1553,31 @@
       <c r="I23" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="1">
-        <v>46000007</v>
       </c>
       <c r="H24" s="1">
         <v>46000007</v>
@@ -1510,28 +1585,31 @@
       <c r="I24" s="1">
         <v>46000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
+        <v>46000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2300000937</v>
       </c>
       <c r="H25" s="1">
         <v>2300000937</v>
@@ -1539,135 +1617,150 @@
       <c r="I25" s="1">
         <v>2300000937</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1">
+        <v>2300000937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>200000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>45</v>
@@ -1675,141 +1768,156 @@
       <c r="I30" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>45</v>
@@ -1817,97 +1925,109 @@
       <c r="I35" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="1">
         <v>1000001018</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>45</v>
@@ -1915,372 +2035,414 @@
       <c r="I39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I50" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
@@ -2288,28 +2450,31 @@
       <c r="I53" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>23</v>
@@ -2317,68 +2482,77 @@
       <c r="I54" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>179</v>
@@ -2386,28 +2560,31 @@
       <c r="I57" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>180</v>
@@ -2415,106 +2592,118 @@
       <c r="I58" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>45</v>
@@ -2522,141 +2711,156 @@
       <c r="I62" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>150</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>45</v>
@@ -2664,28 +2868,31 @@
       <c r="I67" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>153</v>
@@ -2693,77 +2900,86 @@
       <c r="I68" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>45</v>
@@ -2771,86 +2987,95 @@
       <c r="I71" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>164</v>
@@ -2858,285 +3083,318 @@
       <c r="I74" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I75" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I82" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>12</v>
@@ -3144,28 +3402,31 @@
       <c r="I85" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>23</v>
@@ -3173,155 +3434,173 @@
       <c r="I86" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>180</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>40</v>
@@ -3329,57 +3608,63 @@
       <c r="I92" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>178</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>45</v>
@@ -3387,62 +3672,71 @@
       <c r="I94" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H95" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H96" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3460,7 +3754,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
